--- a/testplanGuichet.xlsx
+++ b/testplanGuichet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/954df331d74616b4/Bureau/monDossier/métier/backend/projeguichet/Guichet_automatique_4-main/Guichet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/954df331d74616b4/Bureau/monDossier/métier/backend/projeguichet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01D4F466-517E-4C83-830E-64A55F658B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="460" documentId="14_{51B8380C-17CA-4A13-8492-35F5179BB508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF1613A8-C3CE-42EE-8AAD-C1D548D650D7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93404533-DD51-4F4D-84D7-81870FFBFBEB}"/>
   </bookViews>
@@ -209,9 +209,6 @@
     <t>Saisir le monant en négative(-100)</t>
   </si>
   <si>
-    <t>Saisir le montant plus le solde compte mais moins le solde guichet</t>
-  </si>
-  <si>
     <t>Saisir le montant &gt; le solde guichet</t>
   </si>
   <si>
@@ -315,9 +312,6 @@
   </si>
   <si>
     <t xml:space="preserve">Afficher le solde compte retiré(en xx xxx.xx$) et afficher le menu usager </t>
-  </si>
-  <si>
-    <t>Choisir 4 (Afficher solde du compte)</t>
   </si>
   <si>
     <t>Afficher choisir le compte de chèque ou le compte de épargne</t>
@@ -390,36 +384,6 @@
     <t>Afficher le solde du compte n'est pas suffisant, rentrer le montant</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Saisir </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500,01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Saisir 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500,01</t>
-    </r>
-  </si>
-  <si>
     <t>Saisir 1500 et 1000,01</t>
   </si>
   <si>
@@ -444,9 +408,6 @@
     <t>Aucun acceè au menu usager, afficher menu principal</t>
   </si>
   <si>
-    <t>Choisir 1 (comme un client)</t>
-  </si>
-  <si>
     <t xml:space="preserve">??? Qui va le remettre? Comment ? </t>
   </si>
   <si>
@@ -472,9 +433,6 @@
   </si>
   <si>
     <t>Saisir erkjew</t>
-  </si>
-  <si>
-    <t>Saisir ruur</t>
   </si>
   <si>
     <t>Afficher saisir le montant en valide</t>
@@ -529,6 +487,58 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">   ?????  Afficher le menu usager</t>
+    </r>
+  </si>
+  <si>
+    <t>Choisir 4 (Afficher solde du compte chèque ou du compte épargne)</t>
+  </si>
+  <si>
+    <t>Essayer de choisir 1 (comme un client)</t>
+  </si>
+  <si>
+    <t>Saisir le montant plus le solde du compte mais moins le solde guichet</t>
+  </si>
+  <si>
+    <t>Saisir 'ruur'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Saisir </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(si le solde du compte est 500$)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Saisir </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1500,01(par exemple: le solde du compte est 1500$)</t>
     </r>
   </si>
 </sst>
@@ -1237,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB67A30F-089F-4413-8CE7-E440FBA1B6D6}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1254,7 +1264,7 @@
         <v>45</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="23"/>
@@ -1278,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="40" t="s">
@@ -1303,10 +1313,10 @@
     </row>
     <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="42"/>
@@ -1326,7 +1336,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="42"/>
@@ -1336,139 +1346,139 @@
         <v>5</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="42"/>
     </row>
     <row r="13" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="42"/>
     </row>
     <row r="15" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>72</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="49" t="s">
         <v>78</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>79</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="42"/>
@@ -1514,17 +1524,17 @@
         <v>43</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="27"/>
@@ -1534,7 +1544,7 @@
         <v>44</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="27"/>
@@ -1568,7 +1578,7 @@
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1706,11 +1716,11 @@
         <v>30</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.35">
@@ -1765,7 +1775,7 @@
     </row>
     <row r="52" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="28" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>36</v>
@@ -1778,88 +1788,88 @@
         <v>48</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="27"/>
     </row>
     <row r="56" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="27"/>
     </row>
     <row r="57" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="27"/>
     </row>
     <row r="58" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="27"/>
     </row>
     <row r="59" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="27"/>
     </row>
     <row r="60" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="27"/>
     </row>
     <row r="61" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>28</v>
@@ -1869,194 +1879,194 @@
     </row>
     <row r="62" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="28" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="27"/>
     </row>
     <row r="63" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="27"/>
     </row>
     <row r="64" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="28" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="27"/>
     </row>
     <row r="65" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="27"/>
     </row>
     <row r="66" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="27"/>
     </row>
     <row r="67" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D67" s="27"/>
     </row>
     <row r="68" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="28" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="27"/>
     </row>
     <row r="69" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="27"/>
     </row>
     <row r="70" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="28" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="27"/>
     </row>
     <row r="71" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="27"/>
     </row>
     <row r="72" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="28" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="27"/>
     </row>
     <row r="73" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="27"/>
     </row>
     <row r="74" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="27"/>
     </row>
     <row r="75" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="28" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="27"/>
     </row>
     <row r="76" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="28" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="27"/>
     </row>
     <row r="77" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="28" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="27"/>
     </row>
     <row r="78" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="28" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C78" s="14"/>
       <c r="D78" s="27"/>
     </row>
     <row r="79" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="28" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D79" s="27"/>
     </row>
     <row r="80" spans="1:4" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C80" s="37"/>
       <c r="D80" s="38"/>
